--- a/dup/dup_SPBU.xlsx
+++ b/dup/dup_SPBU.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -502,16 +497,15 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Bantul/@-7.8056335,110.3636606,13z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,25 +528,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.1</v>
+        <v>-7.820712</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.820712</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.42155</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.10+Mantup/@-7.8207124,110.3494525,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a5733c636ab4d:0x51b990fe909ffaef!8m2!3d-7.8207124!4d110.4215503!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzvzb386?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -567,25 +560,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.3</v>
+        <v>-7.82051</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.82051</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.42166</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+barat+jembatan+sekarsuli/@-7.8205097,110.3495617,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57dfb48a1b49:0x59932ee34759a692!8m2!3d-7.8205097!4d110.4216595!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fn62cbgl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+barat+jembatan+sekarsuli/@-7.8205097,110.3495617,13z/data=!4m11!1m3!2m2!1sSPBU+Bantul!6e2!3m6!1s0x2e7a57dfb48a1b49:0x59932ee34759a692!8m2!3d-7.8205097!4d110.4216595!15sCgtTUEJVIEJhbnR1bJIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11fn62cbgl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoJLDEwMjExMjMzSAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -603,16 +595,15 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Gunungkidul/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -626,16 +617,15 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Kota+Yogyakarta/@-7.8056335,110.3636606,13z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -658,25 +648,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F7" t="n">
-        <v>4.3</v>
+        <v>-7.785728</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.785728</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.352793</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Pertamina+Tegalrejo+41.552.02/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581791b09f03:0x6d5488ff399afada!8m2!3d-7.785728!4d110.3527928!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4dw4ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J7" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Pertamina+Tegalrejo+41.552.02/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a581791b09f03:0x6d5488ff399afada!8m2!3d-7.785728!4d110.3527928!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YVoWIhRzcGJ1IGtvdGEgeW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1hm4dw4ld?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -695,25 +684,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.6</v>
+        <v>-7.815616</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.815616</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.374214</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Ada+Dexlite/@-7.785728,110.280695,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57d84d34bc91:0x530fdf5f3c7a0db6!8m2!3d-7.815616!4d110.3742139!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g__42xg_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -736,25 +724,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.3</v>
+        <v>-7.824502</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.824502</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.367444</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+44.551.08+Jogokariyan/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57a5263ea5d5:0xd2b1d24b3507131!8m2!3d-7.8245019!4d110.367444!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11bbw_v9p6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -777,25 +764,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.3</v>
+        <v>-7.790493</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.790493</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.38011</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+bensin/@-7.8180737,110.3182995,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59a0609fcf2d:0xead6cd9415a7504e!8m2!3d-7.7904926!4d110.3801097!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kj20p564?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -810,25 +796,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F11" t="n">
-        <v>3.1</v>
+        <v>-7.785756</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.785756</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.352706</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pom+Tegalrejo/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5963d73bf9cd:0x532f81bcc964bf53!8m2!3d-7.785756!4d110.3527056!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11kb1sghtt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -843,25 +828,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>3.7</v>
+        <v>-7.78161</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.78161</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.367257</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+(Pangkalan+LPG+3Kg+PT.Budi+Bakti+Mulia)/@-7.7559509,110.3104153,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5830a316aa8d:0x4b43d8f6ebbaa82d!8m2!3d-7.7816104!4d110.3672569!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g6bg8hbv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -876,25 +860,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F13" t="n">
-        <v>3.7</v>
+        <v>-7.836343</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.836343</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.393107</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Outlet+Green+Nitrogen+SPBU+44+-+55111/@-7.8363429,110.3210094,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a56e28591e6a7:0x58aebdf22e53bfd0!8m2!3d-7.8363429!4d110.3931072!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11g6yyjzhk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -909,25 +892,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>3</v>
+      </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>-7.781276</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.781276</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.352049</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+flazz+jogja/@-7.7812764,110.2799507,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59ae2fa0040b:0xd6b0c8f6a917d676!8m2!3d-7.7812764!4d110.3520485!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11khrk7dzj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -942,25 +924,24 @@
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>3</v>
+      </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>-7.817997</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.817997</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.390215</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/NITROGEN/@-7.817997,110.3181173,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a570d8019e81f:0x278e814d9a81d08!8m2!3d-7.817997!4d110.3902151!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11cky7q66z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -975,25 +956,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
       <c r="F16" t="n">
-        <v>2</v>
+        <v>-7.815529</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.815529</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.374183</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Nitrogen+Enduro/@-7.860971,110.2684482,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a579f686da353:0x6a77d58befee5312!8m2!3d-7.8155294!4d110.3741829!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11h_82p582?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1008,25 +988,24 @@
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>2</v>
+      </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>-7.727933</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.727933</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.380284</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Palagan+44.555.09/@-7.7279328,110.3081859,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a59273e8c7237:0x334190d8ad398fde!8m2!3d-7.7279328!4d110.3802837!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzxst7tg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1045,25 +1024,24 @@
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.2</v>
+        <v>-7.732218</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.732218</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.325538</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/SPBU+Cebongan/@-7.7322179,110.25344,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af61eb7292e7d:0x21a50c61e6bb540c!8m2!3d-7.7322179!4d110.3255378!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11d_76bsfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/SPBU+Cebongan/@-7.7322179,110.25344,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7af61eb7292e7d:0x21a50c61e6bb540c!8m2!3d-7.7322179!4d110.3255378!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11d_76bsfh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>3 hari lalu</t>
         </is>
@@ -1086,25 +1064,24 @@
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.2</v>
+        <v>-7.774649</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.774649</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.462672</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+Pertamina+Kalasan+44.555.15/@-7.774649,110.3905742,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5a66182cf779:0x69caa64a893cfa9d!8m2!3d-7.774649!4d110.462672!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzsncs5_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1127,25 +1104,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F20" t="n">
-        <v>4.4</v>
+        <v>-7.708579</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.708579</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.354762</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" t="inlineStr">
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/SPBU+44.555.02+Helsen/@-7.708579,110.2826642,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a5f3602bababb:0x3d988e8eb2d0bb04!8m2!3d-7.708579!4d110.354762!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F1pzv1ctjk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1168,25 +1144,24 @@
           <t>(021) 1500000</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4.4</v>
+        <v>-7.797402</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.797402</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.380077</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr">
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tambal+Ban+Motor+Subur+Jaya/@-7.7974022,110.3079794,13z/data=!4m11!1m3!2m2!1sSPBU+Kota+Yogyakarta!6e2!3m6!1s0x2e7a57432421250b:0xd3d62c167ccc4a0f!8m2!3d-7.7974022!4d110.3800772!15sChRTUEJVIEtvdGEgWW9neWFrYXJ0YZIBC2dhc19zdGF0aW9u4AEA!16s%2Fg%2F11f6l1hdxr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1200,16 +1175,15 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr">
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/SPBU+Kulon+Progo/@-7.8056036,110.2400464,11z/data=!4m2!2m1!6e2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
